--- a/docentes/Caballero Rosas María Teresa - Estadisticos 20202.xlsx
+++ b/docentes/Caballero Rosas María Teresa - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Mat</t>
   </si>
@@ -76,9 +76,6 @@
     <t>MAZAHUA</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
     <t>DE LOS SANTOS</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>GENARO RAFAEL</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
   </si>
   <si>
     <t>ANGEL EMMANUEL</t>
@@ -668,16 +662,16 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3">
-        <v>85.37</v>
+        <v>87.8</v>
       </c>
       <c r="H3">
         <v>6.9</v>
@@ -765,16 +759,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>95.12</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -791,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>95.12</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="H3">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -817,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>69.44</v>
+        <v>75</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +830,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -877,10 +871,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -894,19 +888,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920246</v>
+        <v>20330051920251</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -917,7 +911,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920251</v>
+        <v>20330051920310</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -926,13 +920,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -940,70 +934,47 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920310</v>
+        <v>20330051920237</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920237</v>
+        <v>20330051920284</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920284</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Caballero Rosas María Teresa - Estadisticos 20202.xlsx
+++ b/docentes/Caballero Rosas María Teresa - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>Mat</t>
   </si>
@@ -73,43 +73,61 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
     <t>MAZAHUA</t>
   </si>
   <si>
+    <t>PLIEGO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>MARIANO</t>
+  </si>
+  <si>
     <t>DE LOS SANTOS</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>MARIANO</t>
-  </si>
-  <si>
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>ACEVEDO</t>
   </si>
   <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>CALIHUA</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
+    <t>VANELY JUDITH</t>
+  </si>
+  <si>
     <t>GENARO RAFAEL</t>
   </si>
   <si>
+    <t>VICTOR GAMALIEL</t>
+  </si>
+  <si>
+    <t>ARANTZA</t>
+  </si>
+  <si>
+    <t>JAQUELINE</t>
+  </si>
+  <si>
     <t>ANGEL EMMANUEL</t>
-  </si>
-  <si>
-    <t>ARANTZA</t>
-  </si>
-  <si>
-    <t>JAQUELINE</t>
   </si>
   <si>
     <t>ISRAEL</t>
@@ -830,7 +848,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -865,16 +883,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920236</v>
+        <v>20330051920220</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -888,16 +906,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920251</v>
+        <v>20330051920236</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -911,22 +929,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920310</v>
+        <v>20330051920244</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -934,47 +952,93 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920237</v>
+        <v>20330051920310</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920284</v>
+        <v>20330051920237</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920251</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920284</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
